--- a/Shading Nets/my_graphs/CO2 Change by Activities.xlsx
+++ b/Shading Nets/my_graphs/CO2 Change by Activities.xlsx
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.820133941843327E-05</v>
+        <v>-3.387329028381458E-08</v>
       </c>
       <c r="D2">
-        <v>-0.003587267301099928</v>
+        <v>-6.676022252349867E-06</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-1.820133941843327E-05</v>
+        <v>-3.387329028381458E-08</v>
       </c>
       <c r="G2">
-        <v>-9.100669709249942E-05</v>
+        <v>-1.693664515300952E-07</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -476,19 +476,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.000265360943584203</v>
+        <v>-4.93845431215334E-07</v>
       </c>
       <c r="D3">
-        <v>-0.001061443774336812</v>
+        <v>-1.975381724861336E-06</v>
       </c>
       <c r="E3">
-        <v>-0.0003244493358394163</v>
+        <v>-6.038108699701894E-07</v>
       </c>
       <c r="F3">
-        <v>-0.0004918712201309461</v>
+        <v>-9.153884952262104E-07</v>
       </c>
       <c r="G3">
-        <v>-0.001326804717921348</v>
+        <v>-2.46922715607667E-06</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -499,19 +499,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>-1.69017923695447E-05</v>
+        <v>-3.145479070699314E-08</v>
       </c>
       <c r="D4">
-        <v>-6.76071694781788E-05</v>
+        <v>-1.258191628279726E-07</v>
       </c>
       <c r="E4">
-        <v>-0.07730428076853713</v>
+        <v>-0.0001438658054198072</v>
       </c>
       <c r="F4">
-        <v>-0.01250109527793519</v>
+        <v>-2.32649488873804E-05</v>
       </c>
       <c r="G4">
-        <v>-8.45089618477235E-05</v>
+        <v>-1.572739535340983E-07</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -522,19 +522,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-0.00593668124429314</v>
+        <v>-1.104835791920777E-05</v>
       </c>
       <c r="D5">
-        <v>-9.971307392664386E-06</v>
+        <v>-1.855692888241833E-08</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-2.492826848166096E-06</v>
+        <v>-4.639232220604583E-09</v>
       </c>
       <c r="G5">
-        <v>-1.246413424027537E-05</v>
+        <v>-2.319616143608982E-08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -545,19 +545,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-3.010171786903271E-05</v>
+        <v>-5.602028560480754E-08</v>
       </c>
       <c r="D6">
-        <v>-0.005932690212308245</v>
+        <v>-1.104093133363904E-05</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>-3.010171786903271E-05</v>
+        <v>-5.602028560480754E-08</v>
       </c>
       <c r="G6">
-        <v>-0.0001505085893451774</v>
+        <v>-2.801014280517933E-07</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -568,19 +568,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>-3.268296890207578E-07</v>
+        <v>-6.082407771890175E-10</v>
       </c>
       <c r="D7">
-        <v>-1.307318756083031E-06</v>
+        <v>-2.43296310875607E-09</v>
       </c>
       <c r="E7">
-        <v>-0.00149483164227604</v>
+        <v>-2.781930731998727E-06</v>
       </c>
       <c r="F7">
-        <v>-0.0002417334796831483</v>
+        <v>-4.49873944319279E-07</v>
       </c>
       <c r="G7">
-        <v>-1.634148445117667E-06</v>
+        <v>-3.041203844311724E-09</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.007952185755584651</v>
+        <v>-1.479927868786035E-05</v>
       </c>
       <c r="C8">
-        <v>-1.923057669728223E-05</v>
+        <v>-3.578873553067297E-08</v>
       </c>
       <c r="D8">
-        <v>-0.001664518479628896</v>
+        <v>-3.097723379141826E-06</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.923057669728223E-05</v>
+        <v>-3.578873553067297E-08</v>
       </c>
       <c r="G8">
-        <v>-9.615288348641116E-05</v>
+        <v>-1.789436794297217E-07</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -614,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>-2.449773738755212E-06</v>
+        <v>-4.559109312296528E-09</v>
       </c>
       <c r="D9">
-        <v>-0.002110882771944489</v>
+        <v>-3.928421961063577E-06</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-2.449773738755212E-06</v>
+        <v>-4.559109312296528E-09</v>
       </c>
       <c r="G9">
-        <v>-1.224886869355402E-05</v>
+        <v>-2.279554678352724E-08</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -637,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-0.001524403387179518</v>
+        <v>-2.836964771546491E-06</v>
       </c>
       <c r="D10">
-        <v>-0.006113722300085556</v>
+        <v>-1.13778380068652E-05</v>
       </c>
       <c r="E10">
-        <v>-0.01459235222438338</v>
+        <v>-2.715684675536068E-05</v>
       </c>
       <c r="F10">
-        <v>-0.01170424337463771</v>
+        <v>-2.178198133151454E-05</v>
       </c>
       <c r="G10">
-        <v>-0.007622016935897591</v>
+        <v>-1.418482386839059E-05</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -660,19 +660,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-3.401209318099063E-05</v>
+        <v>-6.329762314294385E-08</v>
       </c>
       <c r="D11">
-        <v>-0.004799317327979225</v>
+        <v>-8.931687034419156E-06</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.003147548374045073</v>
+        <v>-5.857690894117695E-06</v>
       </c>
       <c r="G11">
-        <v>-0.05712568879880564</v>
+        <v>-0.0001063127838278888</v>
       </c>
     </row>
   </sheetData>
